--- a/EICV dash/population_share_children.xlsx
+++ b/EICV dash/population_share_children.xlsx
@@ -41,112 +41,112 @@
     <t>City of Kigali</t>
   </si>
   <si>
-    <t xml:space="preserve">  Nyarugenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Gasabo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Kicukiro</t>
-  </si>
-  <si>
     <t>Southern Province</t>
   </si>
   <si>
-    <t xml:space="preserve">  Nyanza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Gisagara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Nyaruguru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Huye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Nyamagabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Ruhango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Muhanga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Kamonyi</t>
-  </si>
-  <si>
     <t>Western Province</t>
   </si>
   <si>
-    <t xml:space="preserve">  Karongi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Rutsiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Rubavu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Nyabihu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Ngororero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Rusizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Nyamasheke</t>
-  </si>
-  <si>
     <t>Northern Province</t>
   </si>
   <si>
-    <t xml:space="preserve">  Rulindo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Gakenke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Musanze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Burera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Gicumbi</t>
-  </si>
-  <si>
     <t>Eastern Province</t>
   </si>
   <si>
-    <t xml:space="preserve">  Rwamagana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Nyagatare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Gatsibo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Kayonza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Kirehe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Ngoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Bugesera</t>
-  </si>
-  <si>
     <t>district</t>
   </si>
   <si>
     <t>province</t>
+  </si>
+  <si>
+    <t>Nyarugenge</t>
+  </si>
+  <si>
+    <t>Gasabo</t>
+  </si>
+  <si>
+    <t>Kicukiro</t>
+  </si>
+  <si>
+    <t>Nyanza</t>
+  </si>
+  <si>
+    <t>Gisagara</t>
+  </si>
+  <si>
+    <t>Nyaruguru</t>
+  </si>
+  <si>
+    <t>Huye</t>
+  </si>
+  <si>
+    <t>Nyamagabe</t>
+  </si>
+  <si>
+    <t>Ruhango</t>
+  </si>
+  <si>
+    <t>Muhanga</t>
+  </si>
+  <si>
+    <t>Kamonyi</t>
+  </si>
+  <si>
+    <t>Karongi</t>
+  </si>
+  <si>
+    <t>Rutsiro</t>
+  </si>
+  <si>
+    <t>Rubavu</t>
+  </si>
+  <si>
+    <t>Nyabihu</t>
+  </si>
+  <si>
+    <t>Ngororero</t>
+  </si>
+  <si>
+    <t>Rusizi</t>
+  </si>
+  <si>
+    <t>Nyamasheke</t>
+  </si>
+  <si>
+    <t>Rulindo</t>
+  </si>
+  <si>
+    <t>Gakenke</t>
+  </si>
+  <si>
+    <t>Musanze</t>
+  </si>
+  <si>
+    <t>Burera</t>
+  </si>
+  <si>
+    <t>Gicumbi</t>
+  </si>
+  <si>
+    <t>Rwamagana</t>
+  </si>
+  <si>
+    <t>Nyagatare</t>
+  </si>
+  <si>
+    <t>Gatsibo</t>
+  </si>
+  <si>
+    <t>Kayonza</t>
+  </si>
+  <si>
+    <t>Kirehe</t>
+  </si>
+  <si>
+    <t>Ngoma</t>
+  </si>
+  <si>
+    <t>Bugesera</t>
   </si>
 </sst>
 </file>
@@ -215,18 +215,20 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,17 +513,20 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="5" width="8.88671875" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -534,10 +539,10 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5">
@@ -551,10 +556,10 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5">
@@ -568,11 +573,11 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="5">
         <v>36.944319712617869</v>
@@ -585,11 +590,11 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="5">
         <v>39.496439615630891</v>
@@ -602,11 +607,11 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="5">
         <v>35.83430479178238</v>
@@ -619,11 +624,11 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="5">
         <v>44.421829542256397</v>
@@ -636,11 +641,11 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="5">
         <v>45.202160388322973</v>
@@ -653,11 +658,11 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="5">
         <v>47.240391808196343</v>
@@ -670,11 +675,11 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="5">
         <v>47.420755304199659</v>
@@ -687,11 +692,11 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="5">
         <v>42.725303848883463</v>
@@ -704,11 +709,11 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C12" s="5">
         <v>43.691685644910329</v>
@@ -721,11 +726,11 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="5">
         <v>44.444537272200677</v>
@@ -738,11 +743,11 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="5">
         <v>41.335323577417242</v>
@@ -755,11 +760,11 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>16</v>
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="5">
         <v>43.664958630021523</v>
@@ -772,11 +777,11 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C16" s="5">
         <v>46.808373995754437</v>
@@ -789,11 +794,11 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>18</v>
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="5">
         <v>45.432050548121843</v>
@@ -806,11 +811,11 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>19</v>
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C18" s="5">
         <v>46.145052539760371</v>
@@ -823,11 +828,11 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="5">
         <v>47.484467731666797</v>
@@ -840,11 +845,11 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>21</v>
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="5">
         <v>46.469611008369121</v>
@@ -857,11 +862,11 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>22</v>
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C21" s="5">
         <v>46.903080611229797</v>
@@ -874,11 +879,11 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C22" s="5">
         <v>47.223120510987847</v>
@@ -891,11 +896,11 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>24</v>
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C23" s="5">
         <v>47.411065099932287</v>
@@ -908,11 +913,11 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>25</v>
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C24" s="5">
         <v>43.603094988598848</v>
@@ -925,11 +930,11 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C25" s="5">
         <v>43.388545643873663</v>
@@ -942,11 +947,11 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>27</v>
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C26" s="5">
         <v>42.625531460548039</v>
@@ -959,11 +964,11 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>28</v>
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C27" s="5">
         <v>43.33210909052751</v>
@@ -976,11 +981,11 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>29</v>
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C28" s="5">
         <v>45.225604440386469</v>
@@ -993,11 +998,11 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>30</v>
+      <c r="A29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C29" s="5">
         <v>43.456899605838657</v>
@@ -1010,11 +1015,11 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>31</v>
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C30" s="5">
         <v>46.500424246285696</v>
@@ -1027,11 +1032,11 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>32</v>
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C31" s="5">
         <v>43.496606467818673</v>
@@ -1044,11 +1049,11 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>33</v>
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C32" s="5">
         <v>47.683252700054908</v>
@@ -1061,11 +1066,11 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>34</v>
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C33" s="5">
         <v>46.895486802257963</v>
@@ -1078,11 +1083,11 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>35</v>
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C34" s="5">
         <v>46.946789496597091</v>
@@ -1095,11 +1100,11 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>36</v>
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C35" s="5">
         <v>46.72525660221774</v>
@@ -1112,11 +1117,11 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>37</v>
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C36" s="5">
         <v>46.544789400341081</v>
@@ -1129,11 +1134,11 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>38</v>
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C37" s="5">
         <v>46.754342665921413</v>
